--- a/medicine/Enfance/Jean-Yves_Loude/Jean-Yves_Loude.xlsx
+++ b/medicine/Enfance/Jean-Yves_Loude/Jean-Yves_Loude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Yves Loude est un ethnologue, poète, romancier, scénariste de cinéma et auteur d'ouvrages pour la jeunesse français. Il a débuté par le journalisme et demeure un conteur hors pair pour partager le goût de l'Autre et de l'Ailleurs. Il est né à Lyon le 26 février 1950. Il est aussi auteur d'essais et de récits pour adultes, en lien avec les pays dans lesquels il a effectué de nombreux voyages et séjours, au premier titre desquels le pays Kalash (hautes vallées himalayennes du Pakistan), le Mali, le Burkina Faso mais aussi toutes les terres et îles lusophones : Portugal, Brésil, Cap-Vert, Sao Tomé...
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Aquaplaneur, frontispice d'André Mordant, Paris, Éditions Caractères, 1975, 52 p. (BNF 34550431)
 L’Emmigrateur, ill. de Michaël Maas, Lyon, France, Éditions Francis Deswarte, 1975, 17 f. (BNF 34643450)
